--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34408.83753056175</v>
+        <v>6811626.970758324</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34408.83753056175</v>
+        <v>6811626.970758324</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13479.73882383792</v>
+        <v>808784.3294302748</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13479.73882383792</v>
+        <v>808784.3294302748</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960861733.7452825</v>
+        <v>40858336.70362036</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9965.087728342842</v>
+        <v>1141664.745236292</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17790.04077702397</v>
+        <v>1928775.395444163</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25614.99382570508</v>
+        <v>2715886.045652035</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33770.02138574817</v>
+        <v>3465130.096301114</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41976.94516110502</v>
+        <v>4227069.955424577</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49981.18551892778</v>
+        <v>5025256.973133412</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57900.26141143834</v>
+        <v>5812126.904463964</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65819.33730394891</v>
+        <v>6598996.835794514</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73874.22729612293</v>
+        <v>7354905.910262324</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81977.59677001926</v>
+        <v>8120462.401592875</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90076.73141488951</v>
+        <v>8886533.046255583</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98175.0674198997</v>
+        <v>9652444.761586143</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106273.4034249099</v>
+        <v>10418356.4769167</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114371.7394299201</v>
+        <v>11184268.19224726</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122478.726830467</v>
+        <v>11949153.99269063</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>216</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
